--- a/tabel.xlsx
+++ b/tabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH S1 SI STMIK WP\SEMESTER 5\4.3 Metodologi Penelitian dan Publikasi\file_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A95CA-5ED1-4018-B713-9252E35AAA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087502E-8995-4AC3-8989-C51CD04B96CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="615" windowWidth="17835" windowHeight="10965" xr2:uid="{35A67189-C711-4EF2-83C5-637294371213}"/>
+    <workbookView xWindow="12615" yWindow="1455" windowWidth="14880" windowHeight="13020" xr2:uid="{35A67189-C711-4EF2-83C5-637294371213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Simbol</t>
   </si>
@@ -254,13 +254,58 @@
   </si>
   <si>
     <t>method()</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Kegiatan</t>
+  </si>
+  <si>
+    <t>Mulai</t>
+  </si>
+  <si>
+    <t>Selesai</t>
+  </si>
+  <si>
+    <t>Penyusunan Proposal</t>
+  </si>
+  <si>
+    <t>Perencanaan</t>
+  </si>
+  <si>
+    <t>Analisis</t>
+  </si>
+  <si>
+    <t>Desain</t>
+  </si>
+  <si>
+    <t>Implementasi</t>
+  </si>
+  <si>
+    <t>Pengujian</t>
+  </si>
+  <si>
+    <t>Penyusunan Laporan</t>
+  </si>
+  <si>
+    <t>Januari 2024</t>
+  </si>
+  <si>
+    <t>Februari 2024</t>
+  </si>
+  <si>
+    <t>Maret 2024</t>
+  </si>
+  <si>
+    <t>April 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +332,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -323,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +412,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D3D03D-0F0C-4786-91ED-464D435BBB6E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,7 +762,12 @@
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="2.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -704,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -713,7 +799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -722,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
@@ -731,7 +817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -749,7 +835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
@@ -758,7 +844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>10</v>
@@ -767,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
@@ -786,22 +872,357 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2</v>
+      </c>
+      <c r="K19" s="13">
+        <v>3</v>
+      </c>
+      <c r="L19" s="13">
+        <v>4</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1</v>
+      </c>
+      <c r="N19" s="13">
+        <v>2</v>
+      </c>
+      <c r="O19" s="13">
+        <v>3</v>
+      </c>
+      <c r="P19" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1</v>
+      </c>
+      <c r="R19" s="13">
+        <v>2</v>
+      </c>
+      <c r="S19" s="13">
+        <v>3</v>
+      </c>
+      <c r="T19" s="13">
+        <v>4</v>
+      </c>
+      <c r="U19" s="13">
+        <v>1</v>
+      </c>
+      <c r="V19" s="13">
+        <v>2</v>
+      </c>
+      <c r="W19" s="13">
+        <v>3</v>
+      </c>
+      <c r="X19" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="14">
+        <v>45292</v>
+      </c>
+      <c r="H20" s="14">
+        <v>45298</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+    </row>
+    <row r="21" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="14">
+        <v>45299</v>
+      </c>
+      <c r="H21" s="14">
+        <v>45312</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="14">
+        <v>45313</v>
+      </c>
+      <c r="H22" s="14">
+        <v>45319</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="14">
+        <v>45320</v>
+      </c>
+      <c r="H23" s="14">
+        <v>45342</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="14">
+        <v>45343</v>
+      </c>
+      <c r="H24" s="14">
+        <v>45404</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E25" s="5">
+        <v>6</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="14">
+        <v>45405</v>
+      </c>
+      <c r="H25" s="14">
+        <v>45412</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
+        <v>7</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="14">
+        <v>45292</v>
+      </c>
+      <c r="H26" s="14">
+        <v>45412</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I17:L18"/>
+    <mergeCell ref="M17:P18"/>
+    <mergeCell ref="Q17:T18"/>
+    <mergeCell ref="U17:X18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tabel.xlsx
+++ b/tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH S1 SI STMIK WP\SEMESTER 5\4.3 Metodologi Penelitian dan Publikasi\file_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087502E-8995-4AC3-8989-C51CD04B96CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587572F-5174-4EB0-B159-8D72FEA6FC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12615" yWindow="1455" windowWidth="14880" windowHeight="13020" xr2:uid="{35A67189-C711-4EF2-83C5-637294371213}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,29 +413,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,7 +748,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -873,116 +867,116 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19" t="s">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="18" t="s">
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="5">
         <v>1</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="5">
         <v>2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="5">
         <v>3</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="5">
         <v>4</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="5">
         <v>1</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="5">
         <v>2</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="5">
         <v>3</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="5">
         <v>4</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="5">
         <v>1</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="5">
         <v>2</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="5">
         <v>3</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="5">
         <v>4</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="5">
         <v>1</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="5">
         <v>2</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="5">
         <v>3</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="5">
         <v>4</v>
       </c>
     </row>
@@ -990,17 +984,17 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>45292</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>45298</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1020,19 +1014,19 @@
       <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>45299</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>45312</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1050,20 +1044,20 @@
       <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>45313</v>
       </c>
-      <c r="H22" s="14">
-        <v>45319</v>
+      <c r="H22" s="12">
+        <v>45322</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1080,23 +1074,23 @@
       <c r="E23" s="5">
         <v>4</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="14">
-        <v>45320</v>
-      </c>
-      <c r="H23" s="14">
+      <c r="G23" s="12">
+        <v>45323</v>
+      </c>
+      <c r="H23" s="12">
         <v>45342</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="16"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -1110,13 +1104,13 @@
       <c r="E24" s="5">
         <v>5</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="12">
         <v>45343</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <v>45404</v>
       </c>
       <c r="I24" s="7"/>
@@ -1126,27 +1120,27 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E25" s="5">
         <v>6</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>45405</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>45412</v>
       </c>
       <c r="I25" s="7"/>
@@ -1164,37 +1158,37 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="15"/>
+      <c r="X25" s="13"/>
     </row>
     <row r="26" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E26" s="5">
         <v>7</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>45292</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>45412</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -1213,14 +1207,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="I17:L18"/>
     <mergeCell ref="M17:P18"/>
     <mergeCell ref="Q17:T18"/>
     <mergeCell ref="U17:X18"/>
     <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
